--- a/rcads/data/xls/33_Experiences.xlsx
+++ b/rcads/data/xls/33_Experiences.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="33_Experiences"/>
+    <sheet sheetId="1" r:id="rId1" name="_33_Experiences"/>
   </sheets>
+  <definedNames>
+    <definedName name="_33_Experiences">'_33_Experiences'!$A$1:$B$6</definedName>
+  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
@@ -23,32 +26,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -56,36 +33,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,80 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="left"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,68 +350,64 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="true" min="1" max="1" width="14.0625"/>
-    <col customWidth="true" min="2" max="2" width="14.0625"/>
-  </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>ExperienceID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>Experience</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>Intensity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>Relevance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>Agreement</t>
         </is>
